--- a/ISD_Project_Data.xlsx
+++ b/ISD_Project_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aerospace\AEM 3-2\Airtransport System Analysis\Projects\ISD-IFAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71433E9D-2483-416D-AB7E-5D05193B5F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6949F22D-22A0-4066-B807-7530E6975FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Optional_Flights" sheetId="7" r:id="rId3"/>
     <sheet name="Itenaries" sheetId="4" r:id="rId4"/>
     <sheet name="Change_Demand" sheetId="6" r:id="rId5"/>
+    <sheet name="Recapture_Probability" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>ORD</t>
   </si>
@@ -87,9 +88,6 @@
     <t>2200</t>
   </si>
   <si>
-    <t>1,741.16 </t>
-  </si>
-  <si>
     <t>864.38 </t>
   </si>
   <si>
@@ -157,6 +155,18 @@
   </si>
   <si>
     <t>4,5</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>b(3,7)</t>
+  </si>
+  <si>
+    <t>b(6,8)</t>
   </si>
 </sst>
 </file>
@@ -742,7 +752,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -779,10 +789,10 @@
         <v>9</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -801,8 +811,8 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>16</v>
+      <c r="F2" s="10">
+        <v>1741.16</v>
       </c>
       <c r="G2" s="11">
         <v>30000</v>
@@ -825,7 +835,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="6">
         <v>864.38</v>
@@ -851,7 +861,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="10">
         <v>2605.4299999999998</v>
@@ -874,13 +884,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>17</v>
+      <c r="F5" s="6">
+        <v>864.38</v>
       </c>
       <c r="G5" s="11">
         <v>57000</v>
@@ -900,13 +910,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1741.16</v>
       </c>
       <c r="G6" s="11">
         <v>42000</v>
@@ -926,7 +936,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>15</v>
@@ -950,7 +960,7 @@
     <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1065,10 +1075,10 @@
         <v>9</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1085,7 +1095,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="6">
         <v>864.38</v>
@@ -1108,13 +1118,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="11">
         <v>57000</v>
@@ -1142,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321CEA3B-B301-4C85-98D9-305DE9B4D5D1}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1157,21 +1167,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D1" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2">
         <v>50</v>
@@ -1185,7 +1195,7 @@
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
         <v>50</v>
@@ -1199,7 +1209,7 @@
     </row>
     <row r="4" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2">
         <v>300</v>
@@ -1213,7 +1223,7 @@
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
@@ -1227,7 +1237,7 @@
     </row>
     <row r="6" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2">
         <v>50</v>
@@ -1241,7 +1251,7 @@
     </row>
     <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2">
         <v>300</v>
@@ -1255,7 +1265,7 @@
     </row>
     <row r="8" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="6">
         <v>50</v>
@@ -1264,12 +1274,12 @@
         <v>300</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="6">
         <v>50</v>
@@ -1278,7 +1288,7 @@
         <v>300</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1576,4 +1586,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03F16EA-1B8E-4F3F-B90A-EA2684B1C3EB}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ISD_Project_Data.xlsx
+++ b/ISD_Project_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aerospace\AEM 3-2\Airtransport System Analysis\Projects\ISD-IFAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6949F22D-22A0-4066-B807-7530E6975FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CE3AE4-0984-49D6-83ED-23E335F2D6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24430" yWindow="3540" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="1" r:id="rId1"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1308,7 +1308,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03F16EA-1B8E-4F3F-B90A-EA2684B1C3EB}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>

--- a/ISD_Project_Data.xlsx
+++ b/ISD_Project_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aerospace\AEM 3-2\Airtransport System Analysis\Projects\ISD-IFAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CE3AE4-0984-49D6-83ED-23E335F2D6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BAD33B-1B3E-4528-8D26-0AF6804EA500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24430" yWindow="3540" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4188" yWindow="3048" windowWidth="23040" windowHeight="12120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="1" r:id="rId1"/>
@@ -751,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -971,7 +971,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1000,7 +1000,7 @@
         <v>150</v>
       </c>
       <c r="C2" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1162,7 +1162,8 @@
     <col min="2" max="2" width="29.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1592,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03F16EA-1B8E-4F3F-B90A-EA2684B1C3EB}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>

--- a/ISD_Project_Data.xlsx
+++ b/ISD_Project_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aerospace\AEM 3-2\Airtransport System Analysis\Projects\ISD-IFAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BAD33B-1B3E-4528-8D26-0AF6804EA500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C05E29-44FF-4DD1-AF34-861C5778A778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4188" yWindow="3048" windowWidth="23040" windowHeight="12120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="1" r:id="rId1"/>
@@ -751,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F1" sqref="F1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1309,7 +1309,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03F16EA-1B8E-4F3F-B90A-EA2684B1C3EB}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/ISD_Project_Data.xlsx
+++ b/ISD_Project_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aerospace\AEM 3-2\Airtransport System Analysis\Projects\ISD-IFAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C05E29-44FF-4DD1-AF34-861C5778A778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED36DDD8-082E-4499-9C86-510E47C75588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="23040" windowHeight="12120" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="1" r:id="rId1"/>
@@ -751,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G9"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1593,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03F16EA-1B8E-4F3F-B90A-EA2684B1C3EB}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1617,7 +1617,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="2">
-        <v>0.73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1625,7 +1625,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="2">
-        <v>0.78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/ISD_Project_Data.xlsx
+++ b/ISD_Project_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aerospace\AEM 3-2\Airtransport System Analysis\Projects\ISD-IFAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED36DDD8-082E-4499-9C86-510E47C75588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A886BD13-17F5-4063-8D7E-84AA6224C6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="23040" windowHeight="12120" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>ORD</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>b(6,8)</t>
+  </si>
+  <si>
+    <t>q\p</t>
   </si>
 </sst>
 </file>
@@ -294,172 +297,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="385555" cy="257571"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{249BB28F-03C1-AC60-3947-AE42EF5C1F44}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="419100" y="0"/>
-              <a:ext cx="385555" cy="257571"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSubSup>
-                      <m:sSubSupPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1400" b="1" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubSupPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1400" b="1" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝜟</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1400" b="1" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑫</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1400" b="1" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝒒</m:t>
-                        </m:r>
-                      </m:sub>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1400" b="1" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝒑</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSubSup>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1400" b="1"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{249BB28F-03C1-AC60-3947-AE42EF5C1F44}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="419100" y="0"/>
-              <a:ext cx="385555" cy="257571"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>〖𝜟𝑫〗_𝒒^𝒑</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1400" b="1"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1153,7 +990,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1308,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999ADF21-9907-4312-BCD4-1AF36073EE0D}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1155,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
+      <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="B1" s="7">
         <v>1</v>
       </c>
@@ -1396,7 +1235,7 @@
         <v>-27</v>
       </c>
       <c r="H3" s="6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I3" s="6">
         <v>-17</v>
@@ -1457,7 +1296,7 @@
         <v>33</v>
       </c>
       <c r="I5" s="6">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1526,7 +1365,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D8" s="6">
         <v>-6</v>
@@ -1561,7 +1400,7 @@
         <v>-24</v>
       </c>
       <c r="E9" s="6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F9" s="6">
         <v>22</v>
@@ -1585,7 +1424,6 @@
     <row r="16" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1593,7 +1431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03F16EA-1B8E-4F3F-B90A-EA2684B1C3EB}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
